--- a/biology/Botanique/Musée_du_blé/Musée_du_blé.xlsx
+++ b/biology/Botanique/Musée_du_blé/Musée_du_blé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_du_bl%C3%A9</t>
+          <t>Musée_du_blé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée du blé (en italien : museo del grano) est un espace muséal, consacré à la culture du blé, situé près du piano delle fosse de la ville de Cerignola dans les  Pouilles (Italie).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_du_bl%C3%A9</t>
+          <t>Musée_du_blé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Abrité à l'intérieur du complexe de l'Ex Opera Pia Monte Fornari, le musée illustre toutes les étapes et l'histoire locale de la culture du blé, du brûlage des chaumes à l'araire ou à la charrue à traction animale, en passant par l'ensemencement, le hersage, le  battage, le  tamisage et la conservation.
 L'intérieur abrite une collection d'outils aratoires anciens et d'objets utilisés autrefois par les agriculteurs locaux pour la récolte et le travail du sol ainsi que de grandes meules en roche volcanique de l'époque romaine.
